--- a/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data_2.xlsx
+++ b/public/games/hello-kitty-island-adventure/hello-kitty-island-adventure_data_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\hello-kitty-island-adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4961A99C-04F8-4A31-B15F-F823B9B346B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1516DE43-052E-4AD9-B129-4DE5E0C6DDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12525" xr2:uid="{EDF2BE8D-03F7-4EE0-AD1E-08AEE49FD7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitors" sheetId="4" r:id="rId1"/>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
